--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2142.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2142.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.754568157327237</v>
+        <v>0.5877678990364075</v>
       </c>
       <c r="B1">
-        <v>3.90854612962048</v>
+        <v>1.240883111953735</v>
       </c>
       <c r="C1">
-        <v>2.573314925531903</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9222719993526786</v>
+        <v>2.591520309448242</v>
       </c>
       <c r="E1">
-        <v>0.6176269049190183</v>
+        <v>1.421040534973145</v>
       </c>
     </row>
   </sheetData>
